--- a/Circuit/Inductor coil calculator.xlsx
+++ b/Circuit/Inductor coil calculator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nRF51_BLE_nucleometer\Circuit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SesProj\Circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="18228" windowHeight="9396"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18225" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Inductor calculation</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>nH</t>
   </si>
 </sst>
 </file>
@@ -384,25 +387,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -413,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -424,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -435,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -443,15 +446,21 @@
         <v>650</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -459,14 +468,31 @@
         <f>0.75*(PI()*B7*B4^2)/B5*(B5/B6)^0.333</f>
         <v>168.92560526948913</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <f>B10*B8^2/1000</f>
         <v>67.57024210779565</v>
+      </c>
+      <c r="D11">
+        <f>D10*D8^2/1000</f>
+        <v>55.125</v>
+      </c>
+      <c r="E11">
+        <f>E10*E8^2/1000</f>
+        <v>132.5</v>
       </c>
     </row>
   </sheetData>
